--- a/fse/excel/results_06-07-2019_18-35-53.xlsx
+++ b/fse/excel/results_06-07-2019_18-35-53.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oliverborchers/Library/Mobile Documents/com~apple~CloudDocs/Diss/Medium/Fast_Sentence_Embeddings/fse/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E79C97-7190-614B-B28C-3B54E02115F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45752465-2A7F-7243-BCB4-615CA0E3482B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -425,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -436,7 +436,7 @@
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,7 +444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -455,7 +455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -466,7 +466,7 @@
         <v>137.80876484921839</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -480,8 +480,12 @@
         <f t="shared" ref="D3:D4" si="0">$B$2/B4</f>
         <v>132.19513637109745</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <f>$B$3/B4</f>
+        <v>0.95926508386993359</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -495,8 +499,12 @@
         <f>$B$2/B5</f>
         <v>476.36037941816522</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <f t="shared" ref="F5:F11" si="1">$B$3/B5</f>
+        <v>3.4566769387953551</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -507,11 +515,15 @@
         <v>1.3818370336987651</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D11" si="1">$B$2/B6</f>
+        <f t="shared" ref="D6:D11" si="2">$B$2/B6</f>
         <v>658.25241366681564</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>4.7765642075599004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -522,11 +534,15 @@
         <v>1.939554915001088</v>
       </c>
       <c r="D7">
+        <f t="shared" si="2"/>
+        <v>1276.7167042388014</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="1"/>
-        <v>1276.7167042388014</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>9.2644085855910809</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -537,11 +553,15 @@
         <v>2.4295480180816091</v>
       </c>
       <c r="D8">
+        <f t="shared" si="2"/>
+        <v>3101.8445384350625</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="1"/>
-        <v>3101.8445384350625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>22.508325517821046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -552,11 +572,15 @@
         <v>2.2879661079377631</v>
       </c>
       <c r="D9">
+        <f t="shared" si="2"/>
+        <v>7096.9151760312789</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="1"/>
-        <v>7096.9151760312789</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>51.498285931205267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -567,11 +591,15 @@
         <v>3.0154166776920799</v>
       </c>
       <c r="D10">
+        <f t="shared" si="2"/>
+        <v>21400.156381970752</v>
+      </c>
+      <c r="F10">
         <f t="shared" si="1"/>
-        <v>21400.156381970752</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>155.28879026951182</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -582,8 +610,12 @@
         <v>5.7644238510354093E-2</v>
       </c>
       <c r="D11">
+        <f t="shared" si="2"/>
+        <v>1233.5957186411979</v>
+      </c>
+      <c r="F11">
         <f t="shared" si="1"/>
-        <v>1233.5957186411979</v>
+        <v>8.9515040642800905</v>
       </c>
     </row>
   </sheetData>
